--- a/statistics/HistoricalDistanceData/historical_distance/Q60519449-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519449-en.xlsx
@@ -31,31 +31,34 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>Iowa: Policy Priorities and the Election</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Libertarian's announce caucus results</t>
+  </si>
+  <si>
+    <t>Low voter turnout at the Iowa Libertarian Party Caucus</t>
+  </si>
+  <si>
+    <t>Buttigieg, Sanders in near tie</t>
+  </si>
+  <si>
+    <t>Iowa Democratic Party Announces Delegation to National Convention</t>
+  </si>
+  <si>
     <t>Whoever Wins Iowa, They Won’t Be Back</t>
   </si>
   <si>
-    <t>Libertarian's announce caucus results</t>
-  </si>
-  <si>
-    <t>Iowa Democratic Party Announces Delegation to National Convention</t>
-  </si>
-  <si>
     <t>Voting &amp; Elections Toolkits</t>
   </si>
   <si>
-    <t>Low voter turnout at the Iowa Libertarian Party Caucus</t>
-  </si>
-  <si>
-    <t>Buttigieg, Sanders in near tie</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>Iowa: Policy Priorities and the Election</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
+    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
   </si>
   <si>
     <t>Heartland Poll Release: Biden Leads in Midwest</t>
@@ -64,73 +67,70 @@
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-10-22T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-02-10T15:23:00UTC</t>
+  </si>
+  <si>
+    <t>2020-02-10T14:09:00UTC</t>
+  </si>
+  <si>
+    <t>2020-02-04T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-06-13T13:15:51UTC</t>
   </si>
   <si>
     <t>2020-02-03T05:05:00UTC</t>
   </si>
   <si>
-    <t>2020-02-10T15:23:00UTC</t>
-  </si>
-  <si>
-    <t>2020-06-13T13:15:51UTC</t>
-  </si>
-  <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-02-10T14:09:00UTC</t>
-  </si>
-  <si>
-    <t>2020-02-04T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-10-22T00:00:00UTC</t>
+    <t>2020-08-06T13:13:00UTC</t>
   </si>
   <si>
     <t>2020-08-06T15:46:54UTC</t>
   </si>
   <si>
-    <t>2020-08-06T13:13:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.americanactionforum.org/insight/iowa-policy-priorities-and-the-election-october-update/</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.journalexpress.net/news/local_news/libertarian-s-announce-caucus-results/article_95ef52f4-4c4b-11ea-9490-8f4b504e69d2.html</t>
+  </si>
+  <si>
+    <t>https://www.oskaloosa.com/iowa/low-voter-turnout-at-the-iowa-libertarian-party-caucus/article_4b2fa8cc-4c41-11ea-91ab-97b3e4d94934.html</t>
+  </si>
+  <si>
+    <t>https://www.usatoday.com/story/news/politics/elections/2020/02/06/iowa-caucus-results-pete-buttigieg-bernie-sanders-close-delegate-race/4675289002/</t>
+  </si>
+  <si>
+    <t>https://iowademocrats.org/iowa-democratic-party-announces-delegation-national-convention/</t>
+  </si>
+  <si>
     <t>https://www.politico.com/news/magazine/2020/02/03/whoever-wins-iowa-wont-be-back-110439</t>
   </si>
   <si>
-    <t>https://www.journalexpress.net/news/local_news/libertarian-s-announce-caucus-results/article_95ef52f4-4c4b-11ea-9490-8f4b504e69d2.html</t>
-  </si>
-  <si>
-    <t>https://iowademocrats.org/iowa-democratic-party-announces-delegation-national-convention/</t>
-  </si>
-  <si>
     <t>https://godort.libguides.com/votingtoolkit/texas</t>
   </si>
   <si>
-    <t>https://www.oskaloosa.com/iowa/low-voter-turnout-at-the-iowa-libertarian-party-caucus/article_4b2fa8cc-4c41-11ea-91ab-97b3e4d94934.html</t>
-  </si>
-  <si>
-    <t>https://www.usatoday.com/story/news/politics/elections/2020/02/06/iowa-caucus-results-pete-buttigieg-bernie-sanders-close-delegate-race/4675289002/</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>https://www.americanactionforum.org/insight/iowa-policy-priorities-and-the-election-october-update/</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
   <si>
     <t>https://www.focusonruralamerica.com/2020/08/06/heartland-poll-biden-leads-in-midwest/</t>
   </si>
   <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -597,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -614,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -665,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -699,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -716,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
